--- a/natmiOut/OldD2/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H2">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I2">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J2">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N2">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O2">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P2">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q2">
-        <v>20.13848031990729</v>
+        <v>20.5543901036845</v>
       </c>
       <c r="R2">
-        <v>20.13848031990729</v>
+        <v>82.217560414738</v>
       </c>
       <c r="S2">
-        <v>0.001046561901153996</v>
+        <v>0.001018972409190592</v>
       </c>
       <c r="T2">
-        <v>0.001046561901153996</v>
+        <v>0.0005310895057335987</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H3">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I3">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J3">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N3">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P3">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q3">
-        <v>255.9304063545828</v>
+        <v>269.3890240393508</v>
       </c>
       <c r="R3">
-        <v>255.9304063545828</v>
+        <v>1616.334144236105</v>
       </c>
       <c r="S3">
-        <v>0.01330025942289175</v>
+        <v>0.01335481040547507</v>
       </c>
       <c r="T3">
-        <v>0.01330025942289175</v>
+        <v>0.01044081212617464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H4">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I4">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J4">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N4">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O4">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P4">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q4">
-        <v>682.3956103839969</v>
+        <v>702.5521261237373</v>
       </c>
       <c r="R4">
-        <v>682.3956103839969</v>
+        <v>4215.312756742424</v>
       </c>
       <c r="S4">
-        <v>0.03546291656558846</v>
+        <v>0.03482862925764704</v>
       </c>
       <c r="T4">
-        <v>0.03546291656558846</v>
+        <v>0.02722907803634569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H5">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I5">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J5">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N5">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O5">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P5">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q5">
-        <v>814.7935981200459</v>
+        <v>821.3644572595678</v>
       </c>
       <c r="R5">
-        <v>814.7935981200459</v>
+        <v>4928.186743557407</v>
       </c>
       <c r="S5">
-        <v>0.04234341040389615</v>
+        <v>0.0407186842137085</v>
       </c>
       <c r="T5">
-        <v>0.04234341040389615</v>
+        <v>0.03183393241779536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H6">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I6">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J6">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N6">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O6">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P6">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q6">
-        <v>26.44602842321242</v>
+        <v>27.61867226592017</v>
       </c>
       <c r="R6">
-        <v>26.44602842321242</v>
+        <v>165.712033595521</v>
       </c>
       <c r="S6">
-        <v>0.001374354238497834</v>
+        <v>0.001369180251785009</v>
       </c>
       <c r="T6">
-        <v>0.001374354238497834</v>
+        <v>0.001070427309839989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H7">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I7">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J7">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N7">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O7">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P7">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q7">
-        <v>443.4222810887281</v>
+        <v>480.0741736836956</v>
       </c>
       <c r="R7">
-        <v>443.4222810887281</v>
+        <v>1920.296694734782</v>
       </c>
       <c r="S7">
-        <v>0.02304388703310049</v>
+        <v>0.02379940902556718</v>
       </c>
       <c r="T7">
-        <v>0.02304388703310049</v>
+        <v>0.01240427735053234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H8">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I8">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J8">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N8">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O8">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P8">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q8">
-        <v>27.66967601154082</v>
+        <v>30.22856169431</v>
       </c>
       <c r="R8">
-        <v>27.66967601154082</v>
+        <v>181.37137016586</v>
       </c>
       <c r="S8">
-        <v>0.00143794508180082</v>
+        <v>0.001498564062501471</v>
       </c>
       <c r="T8">
-        <v>0.00143794508180082</v>
+        <v>0.001171579779912144</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H9">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I9">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J9">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N9">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P9">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q9">
-        <v>351.6408047102283</v>
+        <v>396.1802170663166</v>
       </c>
       <c r="R9">
-        <v>351.6408047102283</v>
+        <v>3565.62195359685</v>
       </c>
       <c r="S9">
-        <v>0.01827416285910454</v>
+        <v>0.01964041298337288</v>
       </c>
       <c r="T9">
-        <v>0.01827416285910454</v>
+        <v>0.0230323594061442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H10">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I10">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J10">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N10">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O10">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P10">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q10">
-        <v>937.5913748743957</v>
+        <v>1033.216757143923</v>
       </c>
       <c r="R10">
-        <v>937.5913748743957</v>
+        <v>9298.950814295311</v>
       </c>
       <c r="S10">
-        <v>0.04872499792470209</v>
+        <v>0.05122114365506324</v>
       </c>
       <c r="T10">
-        <v>0.04872499792470209</v>
+        <v>0.06006715799998211</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H11">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I11">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J11">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N11">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O11">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P11">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q11">
-        <v>1119.502292036058</v>
+        <v>1207.949544819313</v>
       </c>
       <c r="R11">
-        <v>1119.502292036058</v>
+        <v>10871.54590337382</v>
       </c>
       <c r="S11">
-        <v>0.05817859284751171</v>
+        <v>0.05988342401094029</v>
       </c>
       <c r="T11">
-        <v>0.05817859284751171</v>
+        <v>0.07022543494671669</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H12">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I12">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J12">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N12">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O12">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P12">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q12">
-        <v>36.33606044935451</v>
+        <v>40.61773345226333</v>
       </c>
       <c r="R12">
-        <v>36.33606044935451</v>
+        <v>365.55960107037</v>
       </c>
       <c r="S12">
-        <v>0.001888322053115975</v>
+        <v>0.002013601449760114</v>
       </c>
       <c r="T12">
-        <v>0.001888322053115975</v>
+        <v>0.002361355249040358</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H13">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I13">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J13">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N13">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O13">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P13">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q13">
-        <v>609.2490922413343</v>
+        <v>706.02687327809</v>
       </c>
       <c r="R13">
-        <v>609.2490922413343</v>
+        <v>4236.16123966854</v>
       </c>
       <c r="S13">
-        <v>0.03166161885721536</v>
+        <v>0.03500088790708098</v>
       </c>
       <c r="T13">
-        <v>0.03166161885721536</v>
+        <v>0.02736375012387387</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H14">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I14">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J14">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N14">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O14">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P14">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q14">
-        <v>43.49353569670352</v>
+        <v>44.31177428660867</v>
       </c>
       <c r="R14">
-        <v>43.49353569670352</v>
+        <v>265.870645719652</v>
       </c>
       <c r="S14">
-        <v>0.00226028363032215</v>
+        <v>0.002196731460898053</v>
       </c>
       <c r="T14">
-        <v>0.00226028363032215</v>
+        <v>0.001717408168182664</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H15">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I15">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J15">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N15">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P15">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q15">
-        <v>552.7387413464043</v>
+        <v>580.7569851650189</v>
       </c>
       <c r="R15">
-        <v>552.7387413464043</v>
+        <v>5226.81286648517</v>
       </c>
       <c r="S15">
-        <v>0.02872487391281086</v>
+        <v>0.02879070317059831</v>
       </c>
       <c r="T15">
-        <v>0.02872487391281086</v>
+        <v>0.03376292665241896</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H16">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I16">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J16">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N16">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O16">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P16">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q16">
-        <v>1473.785378441445</v>
+        <v>1514.583068645349</v>
       </c>
       <c r="R16">
-        <v>1473.785378441445</v>
+        <v>13631.24761780815</v>
       </c>
       <c r="S16">
-        <v>0.07659007050447295</v>
+        <v>0.07508460969124944</v>
       </c>
       <c r="T16">
-        <v>0.07659007050447295</v>
+        <v>0.08805190184865075</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H17">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I17">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J17">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N17">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O17">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P17">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q17">
-        <v>1759.728335124091</v>
+        <v>1770.722276532281</v>
       </c>
       <c r="R17">
-        <v>1759.728335124091</v>
+        <v>15936.50048879053</v>
       </c>
       <c r="S17">
-        <v>0.09145003012474097</v>
+        <v>0.08778256786135979</v>
       </c>
       <c r="T17">
-        <v>0.09145003012474097</v>
+        <v>0.1029428278462741</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H18">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I18">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J18">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N18">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O18">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P18">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q18">
-        <v>57.1160913330684</v>
+        <v>59.54116689280379</v>
       </c>
       <c r="R18">
-        <v>57.1160913330684</v>
+        <v>535.870502035234</v>
       </c>
       <c r="S18">
-        <v>0.002968224224592163</v>
+        <v>0.002951720093310078</v>
       </c>
       <c r="T18">
-        <v>0.002968224224592163</v>
+        <v>0.003461489232075201</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H19">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I19">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J19">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N19">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O19">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P19">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q19">
-        <v>957.6692235402539</v>
+        <v>1034.958386884405</v>
       </c>
       <c r="R19">
-        <v>957.6692235402539</v>
+        <v>6209.750321306429</v>
       </c>
       <c r="S19">
-        <v>0.0497684089039333</v>
+        <v>0.05130748397669887</v>
       </c>
       <c r="T19">
-        <v>0.0497684089039333</v>
+        <v>0.04011227300148051</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H20">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I20">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J20">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N20">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O20">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P20">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q20">
-        <v>46.68144909516203</v>
+        <v>47.731317174559</v>
       </c>
       <c r="R20">
-        <v>46.68144909516203</v>
+        <v>286.387903047354</v>
       </c>
       <c r="S20">
-        <v>0.002425953961648343</v>
+        <v>0.002366253389658211</v>
       </c>
       <c r="T20">
-        <v>0.002425953961648343</v>
+        <v>0.001849940683112711</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H21">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I21">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J21">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N21">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O21">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P21">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q21">
-        <v>593.2524225442943</v>
+        <v>625.5740445182183</v>
       </c>
       <c r="R21">
-        <v>593.2524225442943</v>
+        <v>5630.166400663965</v>
       </c>
       <c r="S21">
-        <v>0.03083029967203746</v>
+        <v>0.03101248385645682</v>
       </c>
       <c r="T21">
-        <v>0.03083029967203746</v>
+        <v>0.03636841419087573</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H22">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I22">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J22">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N22">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O22">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P22">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q22">
-        <v>1581.808331257898</v>
+        <v>1631.463555693718</v>
       </c>
       <c r="R22">
-        <v>1581.808331257898</v>
+        <v>14683.17200124346</v>
       </c>
       <c r="S22">
-        <v>0.08220383604546569</v>
+        <v>0.08087889455566372</v>
       </c>
       <c r="T22">
-        <v>0.08220383604546569</v>
+        <v>0.09484687360468011</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H23">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I23">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J23">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N23">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O23">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P23">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q23">
-        <v>1888.709836566255</v>
+        <v>1907.369045133489</v>
       </c>
       <c r="R23">
-        <v>1888.709836566255</v>
+        <v>17166.3214062014</v>
       </c>
       <c r="S23">
-        <v>0.09815297509470332</v>
+        <v>0.09455675509373711</v>
       </c>
       <c r="T23">
-        <v>0.09815297509470332</v>
+        <v>0.110886933459161</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H24">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I24">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J24">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N24">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O24">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P24">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q24">
-        <v>61.30248707927741</v>
+        <v>64.13596313074368</v>
       </c>
       <c r="R24">
-        <v>61.30248707927741</v>
+        <v>577.2236681766931</v>
       </c>
       <c r="S24">
-        <v>0.003185783952115618</v>
+        <v>0.003179504550484227</v>
       </c>
       <c r="T24">
-        <v>0.003185783952115618</v>
+        <v>0.003728612611263304</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H25">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I25">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J25">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N25">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O25">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P25">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q25">
-        <v>1027.862793690651</v>
+        <v>1114.826201887801</v>
       </c>
       <c r="R25">
-        <v>1027.862793690651</v>
+        <v>6688.957211326807</v>
       </c>
       <c r="S25">
-        <v>0.05341624702569897</v>
+        <v>0.05526688629709225</v>
       </c>
       <c r="T25">
-        <v>0.05341624702569897</v>
+        <v>0.04320774006570924</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H26">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I26">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J26">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N26">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O26">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P26">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q26">
-        <v>12.40930603498366</v>
+        <v>12.80328221381767</v>
       </c>
       <c r="R26">
-        <v>12.40930603498366</v>
+        <v>76.819693282906</v>
       </c>
       <c r="S26">
-        <v>0.0006448901163180739</v>
+        <v>0.0006347155647601641</v>
       </c>
       <c r="T26">
-        <v>0.0006448901163180739</v>
+        <v>0.0004962216432891372</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H27">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I27">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J27">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N27">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O27">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P27">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q27">
-        <v>157.7039918435298</v>
+        <v>167.8018020813205</v>
       </c>
       <c r="R27">
-        <v>157.7039918435298</v>
+        <v>1510.216218731885</v>
       </c>
       <c r="S27">
-        <v>0.008195602989972715</v>
+        <v>0.008318680616199642</v>
       </c>
       <c r="T27">
-        <v>0.008195602989972715</v>
+        <v>0.009755336708013136</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H28">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I28">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J28">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N28">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O28">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P28">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q28">
-        <v>420.4913097545721</v>
+        <v>437.6180998465835</v>
       </c>
       <c r="R28">
-        <v>420.4913097545721</v>
+        <v>3938.562898619251</v>
       </c>
       <c r="S28">
-        <v>0.02185220421624668</v>
+        <v>0.02169467287799252</v>
       </c>
       <c r="T28">
-        <v>0.02185220421624668</v>
+        <v>0.02544139491097613</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H29">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I29">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J29">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N29">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O29">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P29">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q29">
-        <v>502.0747819001112</v>
+        <v>511.6260270261358</v>
       </c>
       <c r="R29">
-        <v>502.0747819001112</v>
+        <v>4604.634243235222</v>
       </c>
       <c r="S29">
-        <v>0.02609195579407441</v>
+        <v>0.02536357453242945</v>
       </c>
       <c r="T29">
-        <v>0.02609195579407441</v>
+        <v>0.02974392467968962</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H30">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I30">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J30">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N30">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O30">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P30">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q30">
-        <v>16.29600917747055</v>
+        <v>17.20360728816411</v>
       </c>
       <c r="R30">
-        <v>16.29600917747055</v>
+        <v>154.832465593477</v>
       </c>
       <c r="S30">
-        <v>0.0008468753389071545</v>
+        <v>0.0008528592226167314</v>
       </c>
       <c r="T30">
-        <v>0.0008468753389071545</v>
+        <v>0.001000150055642054</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H31">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I31">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J31">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N31">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O31">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P31">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q31">
-        <v>273.2362472912706</v>
+        <v>299.0370961255557</v>
       </c>
       <c r="R31">
-        <v>273.2362472912706</v>
+        <v>1794.222576753334</v>
       </c>
       <c r="S31">
-        <v>0.01419961396722968</v>
+        <v>0.01482459701987434</v>
       </c>
       <c r="T31">
-        <v>0.01419961396722968</v>
+        <v>0.01158989365115217</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H32">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I32">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J32">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N32">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O32">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P32">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q32">
-        <v>22.36418202004731</v>
+        <v>22.965220189988</v>
       </c>
       <c r="R32">
-        <v>22.36418202004731</v>
+        <v>91.860880759952</v>
       </c>
       <c r="S32">
-        <v>0.001162227759038894</v>
+        <v>0.001138487964203313</v>
       </c>
       <c r="T32">
-        <v>0.001162227759038894</v>
+        <v>0.0005933811403909121</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H33">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I33">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J33">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N33">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O33">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P33">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q33">
-        <v>284.2157948989129</v>
+        <v>300.9857369944867</v>
       </c>
       <c r="R33">
-        <v>284.2157948989129</v>
+        <v>1805.91442196692</v>
       </c>
       <c r="S33">
-        <v>0.01477020201734715</v>
+        <v>0.01492119980258138</v>
       </c>
       <c r="T33">
-        <v>0.01477020201734715</v>
+        <v>0.01166541786111747</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H34">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I34">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J34">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N34">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O34">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P34">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q34">
-        <v>757.8138666810411</v>
+        <v>784.9546588338653</v>
       </c>
       <c r="R34">
-        <v>757.8138666810411</v>
+        <v>4709.727953003192</v>
       </c>
       <c r="S34">
-        <v>0.039382272566544</v>
+        <v>0.03891368879264119</v>
       </c>
       <c r="T34">
-        <v>0.039382272566544</v>
+        <v>0.03042278411184538</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H35">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I35">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J35">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N35">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O35">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P35">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q35">
-        <v>904.8444593464673</v>
+        <v>917.7025210694374</v>
       </c>
       <c r="R35">
-        <v>904.8444593464673</v>
+        <v>5506.215126416624</v>
       </c>
       <c r="S35">
-        <v>0.04702319750940662</v>
+        <v>0.04549458991958993</v>
       </c>
       <c r="T35">
-        <v>0.04702319750940662</v>
+        <v>0.0355677431341939</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H36">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I36">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J36">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N36">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O36">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P36">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q36">
-        <v>29.36883935474582</v>
+        <v>30.85807395609733</v>
       </c>
       <c r="R36">
-        <v>29.36883935474582</v>
+        <v>185.148443736584</v>
       </c>
       <c r="S36">
-        <v>0.001526247654318068</v>
+        <v>0.001529771781279441</v>
       </c>
       <c r="T36">
-        <v>0.001526247654318068</v>
+        <v>0.001195978024346501</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H37">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I37">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J37">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N37">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O37">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P37">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q37">
-        <v>492.4292423500281</v>
+        <v>536.382205969532</v>
       </c>
       <c r="R37">
-        <v>492.4292423500281</v>
+        <v>2145.528823878128</v>
       </c>
       <c r="S37">
-        <v>0.0255906938294756</v>
+        <v>0.02659084827653262</v>
       </c>
       <c r="T37">
-        <v>0.0255906938294756</v>
+        <v>0.01385917846336837</v>
       </c>
     </row>
   </sheetData>
